--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24401.71166852671</v>
+        <v>1751349.433127717</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24401.71166852671</v>
+        <v>1751349.433127717</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495655646.261658</v>
+        <v>59985521.10007858</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13124.30478159848</v>
+        <v>1379852.678108919</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25331.36723357366</v>
+        <v>2607745.292433199</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37538.42968554882</v>
+        <v>3835637.90675748</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50384.04209155138</v>
+        <v>5022678.985837697</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63229.65449755389</v>
+        <v>6209720.064917916</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76075.2669035564</v>
+        <v>7396761.14399813</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88920.87930955891</v>
+        <v>8583802.223078344</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101766.4917155614</v>
+        <v>9770843.302158555</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114965.8893869645</v>
+        <v>10903931.33633534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127617.3944130101</v>
+        <v>12097150.08914129</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140268.899439054</v>
+        <v>13290368.84194743</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152920.4044650981</v>
+        <v>14483587.59475358</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165571.9094911421</v>
+        <v>15676806.34755972</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178844.3157698192</v>
+        <v>16809217.5163743</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192746.7628898584</v>
+        <v>17883068.01791086</v>
       </c>
     </row>
   </sheetData>
